--- a/biology/Zoologie/Gerald_Augustus_Harold_Bedford/Gerald_Augustus_Harold_Bedford.xlsx
+++ b/biology/Zoologie/Gerald_Augustus_Harold_Bedford/Gerald_Augustus_Harold_Bedford.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerald Augustus Harold Bedford (né en mai 1891 et décédé le 28 janvier 1938) est un entomologiste anglais du XXe siècle, spécialiste des tiques d’Afrique du Sud.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir travaillé au British Museum d’Histoire Naturelle avec F.V. Theobald, il est nommé entomologiste à la Division des Services Vétérinaires de l’Université de Pretoria à Onderstepoort le 20 février 1912[1]. Il y étudiera des parasites des vertébrés (mites, tiques et poux). Il commencera la National Tick Collection en 1912 avec des nymphes d’Aponomma exornatum collectées à Onderstepoort[2]. En 1920, il est promu Officier de recherche (Research Officer)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir travaillé au British Museum d’Histoire Naturelle avec F.V. Theobald, il est nommé entomologiste à la Division des Services Vétérinaires de l’Université de Pretoria à Onderstepoort le 20 février 1912. Il y étudiera des parasites des vertébrés (mites, tiques et poux). Il commencera la National Tick Collection en 1912 avec des nymphes d’Aponomma exornatum collectées à Onderstepoort. En 1920, il est promu Officier de recherche (Research Officer).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Taxons créés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Voici une liste des espèces découvertes par Bedford en Afrique du Sud entre 1912 et 1938:
 Argas peringueyi (Bedford &amp; Hewitt, 1925)
@@ -579,7 +595,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bedford, G.A.H. &amp; Hewitt, J. "Descriptions of two new species of ticks, with notes on rare and hitherto unrecorded species from South Africa". South African Journal of Natural History 1925; 5: 259-266.
 Bedford, G.A.H. "South African mosquitoes". Rep. Vet. Res. S. Afr. 1928; 13 &amp; 14: 883-990.
